--- a/NformTester/NformTester/Keywordscripts/600.20.30.220_VerifyThatSiteIdUsedInWriteFileAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.220_VerifyThatSiteIdUsedInWriteFileAction.xlsx
@@ -1204,7 +1204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7644" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7644" uniqueCount="888">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3828,10 +3828,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3867,10 +3863,6 @@
     <t>SendCommandToSimulator</t>
   </si>
   <si>
-    <t>$SNMP_GXT_Ip_Port$</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>$Trap_GXT_Trap$</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3957,6 +3949,18 @@
   </si>
   <si>
     <t>Clear</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_device_0$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_device_0$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_Port$</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4957,8 +4961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5155,16 +5159,16 @@
         <v>851</v>
       </c>
       <c r="J6" s="11" t="s">
+        <v>885</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>852</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>853</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="M6" s="11" t="s">
         <v>854</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>855</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="9"/>
@@ -5631,7 +5635,7 @@
         <v>56</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>852</v>
+        <v>885</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -5657,7 +5661,7 @@
         <v>168</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="2"/>
@@ -5681,7 +5685,7 @@
         <v>511</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>2</v>
@@ -5706,13 +5710,13 @@
         <v>511</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
@@ -5736,7 +5740,7 @@
         <v>17</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="11"/>
@@ -5761,7 +5765,7 @@
         <v>95</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="11"/>
@@ -6162,10 +6166,10 @@
         <v>356</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -6191,7 +6195,7 @@
         <v>779</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -6567,7 +6571,7 @@
         <v>4</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="2"/>
@@ -6856,7 +6860,7 @@
         <v>2</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>852</v>
+        <v>885</v>
       </c>
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
@@ -6881,7 +6885,7 @@
         <v>817</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
@@ -6907,7 +6911,7 @@
         <v>779</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
@@ -6933,7 +6937,7 @@
         <v>56</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="I74" s="11"/>
       <c r="J74" s="11"/>
@@ -7199,21 +7203,21 @@
         <v>85</v>
       </c>
       <c r="D86" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>861</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>862</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="4" t="s">
-        <v>863</v>
+        <v>887</v>
       </c>
       <c r="I86" s="4">
         <v>1</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
@@ -7225,10 +7229,10 @@
         <v>86</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F87" s="2">
         <v>10</v>
@@ -7437,7 +7441,7 @@
         <v>95</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="2"/>
@@ -7458,15 +7462,15 @@
         <v>786</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
       <c r="H97" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="I97" s="4" t="s">
         <v>874</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>876</v>
       </c>
       <c r="J97" s="11" t="b">
         <v>1</v>
@@ -7484,15 +7488,15 @@
         <v>786</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
       <c r="H98" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="J98" s="11" t="b">
         <v>1</v>
@@ -7507,7 +7511,7 @@
         <v>98</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
@@ -7585,7 +7589,7 @@
         <v>56</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>852</v>
+        <v>886</v>
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
@@ -7608,7 +7612,7 @@
         <v>168</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H103" s="4"/>
       <c r="I103" s="2"/>
@@ -7629,7 +7633,7 @@
         <v>511</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>2</v>
@@ -7653,10 +7657,10 @@
         <v>511</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="H105" s="4"/>
       <c r="I105" s="11"/>
@@ -7677,13 +7681,13 @@
         <v>511</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="I106" s="11"/>
       <c r="J106" s="11"/>
@@ -7703,13 +7707,13 @@
         <v>511</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I107" s="11"/>
       <c r="J107" s="11"/>
@@ -7732,7 +7736,7 @@
         <v>17</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H108" s="4"/>
       <c r="I108" s="11"/>
@@ -7756,7 +7760,7 @@
         <v>95</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H109" s="4"/>
       <c r="I109" s="11"/>
@@ -7951,21 +7955,21 @@
         <v>117</v>
       </c>
       <c r="D118" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="E118" s="4" t="s">
         <v>861</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>862</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="H118" s="4" t="s">
-        <v>863</v>
+        <v>887</v>
       </c>
       <c r="I118" s="4">
         <v>1</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
@@ -7977,10 +7981,10 @@
         <v>118</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F119" s="2">
         <v>10</v>
@@ -8189,7 +8193,7 @@
         <v>127</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="2"/>
@@ -8210,15 +8214,15 @@
         <v>786</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F129" s="11"/>
       <c r="G129" s="11"/>
       <c r="H129" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="J129" s="11" t="b">
         <v>1</v>
@@ -8236,15 +8240,15 @@
         <v>786</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F130" s="11"/>
       <c r="G130" s="11"/>
       <c r="H130" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="J130" s="11" t="b">
         <v>1</v>
@@ -8467,7 +8471,7 @@
         <v>139</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
@@ -8569,7 +8573,7 @@
         <v>4</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="I144" s="4"/>
       <c r="J144" s="11"/>
@@ -8592,7 +8596,7 @@
         <v>404</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="H145" s="11"/>
       <c r="I145" s="11"/>

--- a/NformTester/NformTester/Keywordscripts/600.20.30.220_VerifyThatSiteIdUsedInWriteFileAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.220_VerifyThatSiteIdUsedInWriteFileAction.xlsx
@@ -3900,10 +3900,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"C:\Nform\result.txt"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>mytag</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3961,6 +3957,10 @@
   </si>
   <si>
     <t>$Trap_GXT_Port$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:\result.txt"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4961,8 +4961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="D109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H131" sqref="H131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5159,7 +5159,7 @@
         <v>851</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>852</v>
@@ -5635,7 +5635,7 @@
         <v>56</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -6166,10 +6166,10 @@
         <v>356</v>
       </c>
       <c r="G43" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>877</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>878</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -6195,7 +6195,7 @@
         <v>779</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -6571,7 +6571,7 @@
         <v>4</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>872</v>
+        <v>887</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="2"/>
@@ -6860,7 +6860,7 @@
         <v>2</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
@@ -6885,7 +6885,7 @@
         <v>817</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
@@ -6911,7 +6911,7 @@
         <v>779</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
@@ -7211,7 +7211,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I86" s="4">
         <v>1</v>
@@ -7467,10 +7467,10 @@
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
       <c r="H97" s="4" t="s">
-        <v>872</v>
+        <v>887</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J97" s="11" t="b">
         <v>1</v>
@@ -7493,10 +7493,10 @@
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
       <c r="H98" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="I98" s="4" t="s">
         <v>872</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>873</v>
       </c>
       <c r="J98" s="11" t="b">
         <v>1</v>
@@ -7589,7 +7589,7 @@
         <v>56</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
@@ -7963,7 +7963,7 @@
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="H118" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I118" s="4">
         <v>1</v>
@@ -8219,10 +8219,10 @@
       <c r="F129" s="11"/>
       <c r="G129" s="11"/>
       <c r="H129" s="4" t="s">
-        <v>872</v>
+        <v>887</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J129" s="11" t="b">
         <v>1</v>
@@ -8245,10 +8245,10 @@
       <c r="F130" s="11"/>
       <c r="G130" s="11"/>
       <c r="H130" s="4" t="s">
-        <v>872</v>
+        <v>887</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J130" s="11" t="b">
         <v>1</v>
@@ -8471,7 +8471,7 @@
         <v>139</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
@@ -8573,7 +8573,7 @@
         <v>4</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I144" s="4"/>
       <c r="J144" s="11"/>
@@ -8596,7 +8596,7 @@
         <v>404</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H145" s="11"/>
       <c r="I145" s="11"/>
